--- a/data/trans_orig/P33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904329CE-F94D-44B2-A2F1-B673167424C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C433014-C15A-49FB-9077-A8FD891BF82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C69E3084-1A73-4FD6-8073-123CF1BD4747}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C422721A-BCE8-46C6-A14C-30E4F81EE0C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -76,946 +76,958 @@
     <t>86,66%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>67,9%</t>
   </si>
   <si>
-    <t>58,16%</t>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>74,95%</t>
   </si>
   <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>25,05%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52D7092-1CE3-475F-9137-186E0FB92F4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8202DE-8E5E-4419-B8CF-4568FA618DF3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1894,10 +1906,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1924,13 @@
         <v>158624</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -1927,13 +1939,13 @@
         <v>263697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>385</v>
@@ -1942,13 +1954,13 @@
         <v>422321</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,7 +2016,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2016,13 +2028,13 @@
         <v>636401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>514</v>
@@ -2031,13 +2043,13 @@
         <v>567701</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1089</v>
@@ -2046,13 +2058,13 @@
         <v>1204102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2079,13 @@
         <v>115914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -2082,13 +2094,13 @@
         <v>204389</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -2097,13 +2109,13 @@
         <v>320303</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,7 +2171,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2171,13 +2183,13 @@
         <v>791760</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>721</v>
@@ -2186,13 +2198,13 @@
         <v>760503</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1481</v>
@@ -2201,13 +2213,13 @@
         <v>1552263</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2234,13 @@
         <v>144235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -2237,13 +2249,13 @@
         <v>276939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -2252,13 +2264,13 @@
         <v>421174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2338,13 @@
         <v>2886901</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>2396</v>
@@ -2341,13 +2353,13 @@
         <v>2589885</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>5093</v>
@@ -2356,13 +2368,13 @@
         <v>5476786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2389,13 @@
         <v>514737</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>876</v>
@@ -2392,13 +2404,13 @@
         <v>941889</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1364</v>
@@ -2407,13 +2419,13 @@
         <v>1456626</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2481,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE204F19-2D7A-4C50-B83F-B894EAB923B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C8534E-253E-4727-971F-475C3070644B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,7 +2519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2614,13 +2626,13 @@
         <v>90530</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
@@ -2629,13 +2641,13 @@
         <v>76249</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>165</v>
@@ -2644,13 +2656,13 @@
         <v>166779</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2677,13 @@
         <v>25048</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -2680,13 +2692,13 @@
         <v>35060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -2695,13 +2707,13 @@
         <v>60109</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2781,13 @@
         <v>475706</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>405</v>
@@ -2784,13 +2796,13 @@
         <v>411188</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>865</v>
@@ -2799,13 +2811,13 @@
         <v>886894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2832,13 @@
         <v>78679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -2835,13 +2847,13 @@
         <v>143463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>216</v>
@@ -2850,13 +2862,13 @@
         <v>222142</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2936,13 @@
         <v>854025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>698</v>
@@ -2939,13 +2951,13 @@
         <v>740993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>1494</v>
@@ -2954,13 +2966,13 @@
         <v>1595018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2987,13 @@
         <v>148558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -2990,13 +3002,13 @@
         <v>283826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>398</v>
@@ -3005,13 +3017,13 @@
         <v>432384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,7 +3079,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3079,13 +3091,13 @@
         <v>657574</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>568</v>
@@ -3094,13 +3106,13 @@
         <v>603804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>1171</v>
@@ -3109,13 +3121,13 @@
         <v>1261378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3142,13 @@
         <v>101027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3145,13 +3157,13 @@
         <v>173477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -3160,13 +3172,13 @@
         <v>274504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,7 +3234,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3234,13 +3246,13 @@
         <v>748796</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>684</v>
@@ -3249,13 +3261,13 @@
         <v>744575</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>1436</v>
@@ -3264,13 +3276,13 @@
         <v>1493372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3297,13 @@
         <v>177821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>263</v>
@@ -3300,13 +3312,13 @@
         <v>285320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>434</v>
@@ -3315,13 +3327,13 @@
         <v>463140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3401,13 @@
         <v>2826631</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>2433</v>
@@ -3404,13 +3416,13 @@
         <v>2576809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>5131</v>
@@ -3419,13 +3431,13 @@
         <v>5403441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3452,13 @@
         <v>531133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>863</v>
@@ -3455,13 +3467,13 @@
         <v>921146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>1362</v>
@@ -3470,7 +3482,7 @@
         <v>1452279</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>223</v>
@@ -3532,7 +3544,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6054F935-3B5B-4659-A4C9-E644B9800D82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBC9A7E-2DED-445E-966F-436EF942844C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3713,7 +3725,7 @@
         <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3740,13 @@
         <v>12947</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -3743,13 +3755,13 @@
         <v>26999</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -3758,13 +3770,13 @@
         <v>39945</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3844,13 @@
         <v>455382</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>723</v>
@@ -3847,13 +3859,13 @@
         <v>438123</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>1228</v>
@@ -3862,13 +3874,13 @@
         <v>893505</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3895,13 @@
         <v>92361</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>271</v>
@@ -3898,10 +3910,10 @@
         <v>153817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>256</v>
@@ -4023,7 +4035,7 @@
         <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4050,13 @@
         <v>170416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -4053,13 +4065,13 @@
         <v>270302</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -4068,13 +4080,13 @@
         <v>440717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,7 +4142,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4142,13 +4154,13 @@
         <v>591975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>769</v>
@@ -4157,13 +4169,13 @@
         <v>673725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>1312</v>
@@ -4172,13 +4184,13 @@
         <v>1265701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4205,13 @@
         <v>131999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="H14" s="7">
         <v>268</v>
@@ -4208,13 +4220,13 @@
         <v>190103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>396</v>
@@ -4223,13 +4235,13 @@
         <v>322102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4297,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4297,13 +4309,13 @@
         <v>775322</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H16" s="7">
         <v>1107</v>
@@ -4312,13 +4324,13 @@
         <v>832588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M16" s="7">
         <v>1904</v>
@@ -4327,13 +4339,13 @@
         <v>1607911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4360,13 @@
         <v>184936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
@@ -4363,13 +4375,13 @@
         <v>305029</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>651</v>
@@ -4378,13 +4390,13 @@
         <v>489965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4464,13 @@
         <v>2775948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7">
         <v>3895</v>
@@ -4467,13 +4479,13 @@
         <v>2830446</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>6632</v>
@@ -4482,13 +4494,13 @@
         <v>5606394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4515,13 @@
         <v>592658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>1437</v>
@@ -4518,13 +4530,13 @@
         <v>946250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>2062</v>
@@ -4533,13 +4545,13 @@
         <v>1538908</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4607,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C433014-C15A-49FB-9077-A8FD891BF82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22698F17-AD79-4319-8834-D9AEDD0DECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C422721A-BCE8-46C6-A14C-30E4F81EE0C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{238EEF4B-710B-4529-8E9B-DDFB28DD17D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,28 +76,28 @@
     <t>86,66%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>67,9%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>77,48%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,208 +106,202 @@
     <t>13,34%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
   </si>
   <si>
     <t>32,1%</t>
   </si>
   <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>86,23%</t>
   </si>
   <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>72,25%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
     <t>76,89%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>23,11%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>82,19%</t>
+    <t>81,83%</t>
   </si>
   <si>
     <t>86,87%</t>
@@ -316,403 +310,403 @@
     <t>73,31%</t>
   </si>
   <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>17,81%</t>
+    <t>18,17%</t>
   </si>
   <si>
     <t>26,69%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
   </si>
   <si>
     <t>21,34%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>73,33%</t>
   </si>
   <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>26,67%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2015 (Tasa respuesta: 98,84%)</t>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
   </si>
   <si>
     <t>78,33%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
   </si>
   <si>
     <t>68,5%</t>
   </si>
   <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>67,39%</t>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>78,82%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
@@ -928,9 +922,6 @@
     <t>78,2%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
     <t>73,19%</t>
   </si>
   <si>
@@ -950,9 +941,6 @@
   </si>
   <si>
     <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
   </si>
   <si>
     <t>21,8%</t>
@@ -1439,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8202DE-8E5E-4419-B8CF-4568FA618DF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF665C-B26D-430C-8BE4-850DDA1612F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1879,7 +1867,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>697</v>
@@ -1888,13 +1876,13 @@
         <v>766446</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1484</v>
@@ -1903,13 +1891,13 @@
         <v>1620744</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1912,13 @@
         <v>158624</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -1939,13 +1927,13 @@
         <v>263697</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>385</v>
@@ -1954,13 +1942,13 @@
         <v>422321</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,7 +2004,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2028,13 +2016,13 @@
         <v>636401</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>514</v>
@@ -2043,13 +2031,13 @@
         <v>567701</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>1089</v>
@@ -2058,13 +2046,13 @@
         <v>1204102</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2067,13 @@
         <v>115914</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>186</v>
@@ -2094,13 +2082,13 @@
         <v>204389</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>295</v>
@@ -2109,13 +2097,13 @@
         <v>320303</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,7 +2159,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2183,13 +2171,13 @@
         <v>791760</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>721</v>
@@ -2198,13 +2186,13 @@
         <v>760503</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1481</v>
@@ -2213,13 +2201,13 @@
         <v>1552263</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2222,13 @@
         <v>144235</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>268</v>
@@ -2249,13 +2237,13 @@
         <v>276939</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -2264,13 +2252,13 @@
         <v>421174</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,13 +2326,13 @@
         <v>2886901</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>2396</v>
@@ -2353,13 +2341,13 @@
         <v>2589885</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>5093</v>
@@ -2368,13 +2356,13 @@
         <v>5476786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2377,13 @@
         <v>514737</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>876</v>
@@ -2404,13 +2392,13 @@
         <v>941889</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1364</v>
@@ -2419,13 +2407,13 @@
         <v>1456626</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2469,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2502,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C8534E-253E-4727-971F-475C3070644B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25191548-C532-4255-B64A-3FFF717FFED6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2519,7 +2507,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2626,13 +2614,13 @@
         <v>90530</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>78</v>
@@ -2641,13 +2629,13 @@
         <v>76249</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>165</v>
@@ -2656,13 +2644,13 @@
         <v>166779</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2665,13 @@
         <v>25048</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -2692,13 +2680,13 @@
         <v>35060</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -2707,13 +2695,13 @@
         <v>60109</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,13 +2769,13 @@
         <v>475706</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>405</v>
@@ -2796,13 +2784,13 @@
         <v>411188</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>865</v>
@@ -2811,13 +2799,13 @@
         <v>886894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2820,13 @@
         <v>78679</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -2847,13 +2835,13 @@
         <v>143463</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>216</v>
@@ -2862,13 +2850,13 @@
         <v>222142</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,13 +2924,13 @@
         <v>854025</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>698</v>
@@ -2951,13 +2939,13 @@
         <v>740993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>1494</v>
@@ -2966,13 +2954,13 @@
         <v>1595018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2975,13 @@
         <v>148558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -3002,13 +2990,13 @@
         <v>283826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>398</v>
@@ -3017,13 +3005,13 @@
         <v>432384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,7 +3067,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3091,13 +3079,13 @@
         <v>657574</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>568</v>
@@ -3106,13 +3094,13 @@
         <v>603804</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>1171</v>
@@ -3121,13 +3109,13 @@
         <v>1261378</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3130,13 @@
         <v>101027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -3157,13 +3145,13 @@
         <v>173477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -3172,13 +3160,13 @@
         <v>274504</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3222,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3246,13 +3234,13 @@
         <v>748796</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>684</v>
@@ -3261,13 +3249,13 @@
         <v>744575</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>1436</v>
@@ -3276,13 +3264,13 @@
         <v>1493372</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3285,13 @@
         <v>177821</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>263</v>
@@ -3312,13 +3300,13 @@
         <v>285320</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>434</v>
@@ -3327,13 +3315,13 @@
         <v>463140</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3389,13 @@
         <v>2826631</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>2433</v>
@@ -3416,13 +3404,13 @@
         <v>2576809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>5131</v>
@@ -3431,13 +3419,13 @@
         <v>5403441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3440,13 @@
         <v>531133</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>863</v>
@@ -3467,13 +3455,13 @@
         <v>921146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="M20" s="7">
         <v>1362</v>
@@ -3482,13 +3470,13 @@
         <v>1452279</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3532,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBC9A7E-2DED-445E-966F-436EF942844C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586F448-F93F-42F4-A1EE-10C2589E2CAC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3689,13 +3677,13 @@
         <v>89035</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>190</v>
@@ -3704,13 +3692,13 @@
         <v>102615</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>291</v>
@@ -3719,10 +3707,10 @@
         <v>191651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3740,13 +3728,13 @@
         <v>12947</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -3755,13 +3743,13 @@
         <v>26999</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -3770,13 +3758,13 @@
         <v>39945</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3832,13 @@
         <v>455382</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>723</v>
@@ -3859,13 +3847,13 @@
         <v>438123</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>1228</v>
@@ -3874,13 +3862,13 @@
         <v>893505</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,13 +3883,13 @@
         <v>92361</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>271</v>
@@ -3910,13 +3898,13 @@
         <v>153817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>376</v>
@@ -3925,13 +3913,13 @@
         <v>246178</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3987,13 @@
         <v>864232</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>1106</v>
@@ -4014,13 +4002,13 @@
         <v>783394</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>1897</v>
@@ -4029,13 +4017,13 @@
         <v>1647627</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4038,13 @@
         <v>170416</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -4065,13 +4053,13 @@
         <v>270302</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -4080,13 +4068,13 @@
         <v>440717</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,7 +4130,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4154,13 +4142,13 @@
         <v>591975</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H13" s="7">
         <v>769</v>
@@ -4169,13 +4157,13 @@
         <v>673725</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>1312</v>
@@ -4184,13 +4172,13 @@
         <v>1265701</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4193,13 @@
         <v>131999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>268</v>
@@ -4220,13 +4208,13 @@
         <v>190103</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>396</v>
@@ -4235,13 +4223,13 @@
         <v>322102</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,7 +4285,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4309,13 +4297,13 @@
         <v>775322</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>1107</v>
@@ -4324,13 +4312,13 @@
         <v>832588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M16" s="7">
         <v>1904</v>
@@ -4339,13 +4327,13 @@
         <v>1607911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4348,13 @@
         <v>184936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
@@ -4375,13 +4363,13 @@
         <v>305029</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>651</v>
@@ -4390,13 +4378,13 @@
         <v>489965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4452,13 @@
         <v>2775948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H19" s="7">
         <v>3895</v>
@@ -4479,13 +4467,13 @@
         <v>2830446</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
         <v>6632</v>
@@ -4494,13 +4482,13 @@
         <v>5606394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4503,13 @@
         <v>592658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>1437</v>
@@ -4530,13 +4518,13 @@
         <v>946250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>2062</v>
@@ -4545,13 +4533,13 @@
         <v>1538908</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4595,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22698F17-AD79-4319-8834-D9AEDD0DECDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D1BCB9F-50A4-4469-85B6-DE11D1709CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{238EEF4B-710B-4529-8E9B-DDFB28DD17D2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B835897-3F13-4AD5-B3DC-5A46E6AD0717}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -70,34 +70,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>86,66%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>67,9%</t>
   </si>
   <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>77,48%</t>
   </si>
   <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>13,34%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>32,1%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>86,23%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>72,25%</t>
   </si>
   <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>13,77%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -196,49 +196,49 @@
     <t>84,34%</t>
   </si>
   <si>
-    <t>81,88%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
+    <t>81,35%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
-    <t>18,12%</t>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>18,65%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -247,775 +247,775 @@
     <t>84,59%</t>
   </si>
   <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>69,98%</t>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>28,06%</t>
   </si>
   <si>
     <t>21,1%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>22,96%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>85,14%</t>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>77,99%</t>
   </si>
   <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>79,71%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>84,22%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>14,86%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>20,29%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>15,78%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>78,2%</t>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>73,19%</t>
   </si>
   <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>21,8%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>82,41%</t>
   </si>
   <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>78,46%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EF665C-B26D-430C-8BE4-850DDA1612F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ACC5CC-913D-41D8-BA75-3A2CDD51FF4B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1867,7 +1867,7 @@
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>697</v>
@@ -1876,13 +1876,13 @@
         <v>766446</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1484</v>
@@ -1891,10 +1891,10 @@
         <v>1620744</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -1915,10 +1915,10 @@
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>241</v>
@@ -1927,13 +1927,13 @@
         <v>263697</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>385</v>
@@ -1942,13 +1942,13 @@
         <v>422321</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25191548-C532-4255-B64A-3FFF717FFED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F985912-E73E-443E-8BFD-6754454CCC65}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2635,7 +2635,7 @@
         <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>165</v>
@@ -2644,13 +2644,13 @@
         <v>166779</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2665,13 @@
         <v>25048</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>35</v>
@@ -2680,13 +2680,13 @@
         <v>35060</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -2695,13 +2695,13 @@
         <v>60109</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2769,13 @@
         <v>475706</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>405</v>
@@ -2784,13 +2784,13 @@
         <v>411188</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>865</v>
@@ -2799,13 +2799,13 @@
         <v>886894</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2820,13 @@
         <v>78679</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -2835,13 +2835,13 @@
         <v>143463</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>216</v>
@@ -2850,13 +2850,13 @@
         <v>222142</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,10 +3407,10 @@
         <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>5131</v>
@@ -3419,13 +3419,13 @@
         <v>5403441</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3440,13 @@
         <v>531133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>863</v>
@@ -3455,13 +3455,13 @@
         <v>921146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>1362</v>
@@ -3470,13 +3470,13 @@
         <v>1452279</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,7 +3553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586F448-F93F-42F4-A1EE-10C2589E2CAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24025CD7-15C9-4A63-9DAF-3EAED317DF76}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3570,7 +3570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3677,13 +3677,13 @@
         <v>89035</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>190</v>
@@ -3692,13 +3692,13 @@
         <v>102615</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>291</v>
@@ -3707,13 +3707,13 @@
         <v>191651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3728,13 @@
         <v>12947</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>52</v>
@@ -3743,13 +3743,13 @@
         <v>26999</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>69</v>
@@ -3758,13 +3758,13 @@
         <v>39945</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3832,13 @@
         <v>455382</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>723</v>
@@ -3847,13 +3847,13 @@
         <v>438123</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>1228</v>
@@ -3862,13 +3862,13 @@
         <v>893505</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3883,13 @@
         <v>92361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>271</v>
@@ -3898,13 +3898,13 @@
         <v>153817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>376</v>
@@ -3913,13 +3913,13 @@
         <v>246178</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3987,13 @@
         <v>864232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>1106</v>
@@ -4002,13 +4002,13 @@
         <v>783394</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>1897</v>
@@ -4017,13 +4017,13 @@
         <v>1647627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4038,13 @@
         <v>170416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>401</v>
@@ -4053,13 +4053,13 @@
         <v>270302</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -4068,10 +4068,10 @@
         <v>440717</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>275</v>
@@ -4145,10 +4145,10 @@
         <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>769</v>
@@ -4157,13 +4157,13 @@
         <v>673725</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>1312</v>
@@ -4172,10 +4172,10 @@
         <v>1265701</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>283</v>
@@ -4199,7 +4199,7 @@
         <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>268</v>
@@ -4208,13 +4208,13 @@
         <v>190103</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>396</v>
@@ -4223,13 +4223,13 @@
         <v>322102</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4303,7 @@
         <v>293</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="H16" s="7">
         <v>1107</v>
@@ -4312,13 +4312,13 @@
         <v>832588</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M16" s="7">
         <v>1904</v>
@@ -4327,13 +4327,13 @@
         <v>1607911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4348,13 @@
         <v>184936</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
@@ -4363,13 +4363,13 @@
         <v>305029</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>651</v>
@@ -4378,13 +4378,13 @@
         <v>489965</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4452,13 @@
         <v>2775948</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>3895</v>
@@ -4467,13 +4467,13 @@
         <v>2830446</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>6632</v>
@@ -4482,13 +4482,13 @@
         <v>5606394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4503,13 @@
         <v>592658</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>1437</v>
@@ -4518,7 +4518,7 @@
         <v>946250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>321</v>

--- a/data/trans_orig/P33A-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33A-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D1BCB9F-50A4-4469-85B6-DE11D1709CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D954A851-5967-4BBC-A128-E08A697B84D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B835897-3F13-4AD5-B3DC-5A46E6AD0717}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{86A2FAAB-C116-4231-B1A2-6531A0B7716D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="273">
   <si>
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2012 (Tasa respuesta: 99,23%)</t>
   </si>
@@ -67,181 +67,130 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
   </si>
   <si>
     <t>77,48%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>84,59%</t>
@@ -403,619 +352,511 @@
     <t>Población que las horas que duerme le permiten descansar lo suficiente en 2016 (Tasa respuesta: 98,84%)</t>
   </si>
   <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
   </si>
   <si>
     <t>77,42%</t>
   </si>
   <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>22,58%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>Población que las horas que duerme le permiten descansar lo suficiente en 2023 (Tasa respuesta: 99,44%)</t>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
 </sst>
 </file>
@@ -1427,8 +1268,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14ACC5CC-913D-41D8-BA75-3A2CDD51FF4B}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231648F8-FCAA-4C86-968C-317DD70C7CA9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1545,10 +1386,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>104</v>
+        <v>575</v>
       </c>
       <c r="D4" s="7">
-        <v>100320</v>
+        <v>604441</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1560,10 +1401,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>66</v>
+        <v>464</v>
       </c>
       <c r="I4" s="7">
-        <v>75292</v>
+        <v>495234</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1575,10 +1416,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>170</v>
+        <v>1039</v>
       </c>
       <c r="N4" s="7">
-        <v>175612</v>
+        <v>1099676</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1596,10 +1437,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D5" s="7">
-        <v>15445</v>
+        <v>95964</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1611,10 +1452,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>181</v>
       </c>
       <c r="I5" s="7">
-        <v>35598</v>
+        <v>196864</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1626,10 +1467,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>277</v>
       </c>
       <c r="N5" s="7">
-        <v>51043</v>
+        <v>292828</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1647,10 +1488,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>700405</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1662,10 +1503,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>645</v>
       </c>
       <c r="I6" s="7">
-        <v>110890</v>
+        <v>692098</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1677,10 +1518,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>226655</v>
+        <v>1392504</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1700,10 +1541,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>471</v>
+        <v>787</v>
       </c>
       <c r="D7" s="7">
-        <v>504121</v>
+        <v>854298</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1715,10 +1556,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>398</v>
+        <v>697</v>
       </c>
       <c r="I7" s="7">
-        <v>419943</v>
+        <v>766446</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1730,10 +1571,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>869</v>
+        <v>1484</v>
       </c>
       <c r="N7" s="7">
-        <v>924064</v>
+        <v>1620744</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1751,10 +1592,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="D8" s="7">
-        <v>80519</v>
+        <v>158624</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1766,10 +1607,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="I8" s="7">
-        <v>161266</v>
+        <v>263697</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1781,10 +1622,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>227</v>
+        <v>385</v>
       </c>
       <c r="N8" s="7">
-        <v>241785</v>
+        <v>422321</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1802,10 +1643,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>931</v>
       </c>
       <c r="D9" s="7">
-        <v>584640</v>
+        <v>1012922</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1817,10 +1658,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>581209</v>
+        <v>1030143</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1832,10 +1673,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1096</v>
+        <v>1869</v>
       </c>
       <c r="N9" s="7">
-        <v>1165849</v>
+        <v>2043065</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1855,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>787</v>
+        <v>575</v>
       </c>
       <c r="D10" s="7">
-        <v>854298</v>
+        <v>636401</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1870,10 +1711,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>697</v>
+        <v>514</v>
       </c>
       <c r="I10" s="7">
-        <v>766446</v>
+        <v>567701</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1885,19 +1726,19 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1484</v>
+        <v>1089</v>
       </c>
       <c r="N10" s="7">
-        <v>1620744</v>
+        <v>1204102</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,49 +1747,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>158624</v>
+        <v>115914</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="I11" s="7">
-        <v>263697</v>
+        <v>204389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>385</v>
+        <v>295</v>
       </c>
       <c r="N11" s="7">
-        <v>422321</v>
+        <v>320303</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,10 +1798,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>931</v>
+        <v>684</v>
       </c>
       <c r="D12" s="7">
-        <v>1012922</v>
+        <v>752315</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1972,10 +1813,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>700</v>
       </c>
       <c r="I12" s="7">
-        <v>1030143</v>
+        <v>772090</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1987,10 +1828,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1869</v>
+        <v>1384</v>
       </c>
       <c r="N12" s="7">
-        <v>2043065</v>
+        <v>1524405</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2004,55 +1845,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>575</v>
+        <v>760</v>
       </c>
       <c r="D13" s="7">
-        <v>636401</v>
+        <v>791760</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>514</v>
+        <v>721</v>
       </c>
       <c r="I13" s="7">
-        <v>567701</v>
+        <v>760503</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1089</v>
+        <v>1481</v>
       </c>
       <c r="N13" s="7">
-        <v>1204102</v>
+        <v>1552263</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +1902,13 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D14" s="7">
-        <v>115914</v>
+        <v>144235</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>78</v>
@@ -2076,10 +1917,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="I14" s="7">
-        <v>204389</v>
+        <v>276939</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -2091,10 +1932,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>295</v>
+        <v>407</v>
       </c>
       <c r="N14" s="7">
-        <v>320303</v>
+        <v>421174</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -2112,10 +1953,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>684</v>
+        <v>899</v>
       </c>
       <c r="D15" s="7">
-        <v>752315</v>
+        <v>935995</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2127,10 +1968,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>700</v>
+        <v>989</v>
       </c>
       <c r="I15" s="7">
-        <v>772090</v>
+        <v>1037442</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2142,10 +1983,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1384</v>
+        <v>1888</v>
       </c>
       <c r="N15" s="7">
-        <v>1524405</v>
+        <v>1973437</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2159,19 +2000,19 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>760</v>
+        <v>2697</v>
       </c>
       <c r="D16" s="7">
-        <v>791760</v>
+        <v>2886901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>87</v>
@@ -2180,10 +2021,10 @@
         <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>721</v>
+        <v>2396</v>
       </c>
       <c r="I16" s="7">
-        <v>760503</v>
+        <v>2589885</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>89</v>
@@ -2195,19 +2036,19 @@
         <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>1481</v>
+        <v>5093</v>
       </c>
       <c r="N16" s="7">
-        <v>1552263</v>
+        <v>5476786</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2057,13 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>139</v>
+        <v>488</v>
       </c>
       <c r="D17" s="7">
-        <v>144235</v>
+        <v>514737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>95</v>
@@ -2231,10 +2072,10 @@
         <v>96</v>
       </c>
       <c r="H17" s="7">
-        <v>268</v>
+        <v>876</v>
       </c>
       <c r="I17" s="7">
-        <v>276939</v>
+        <v>941889</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -2246,19 +2087,19 @@
         <v>99</v>
       </c>
       <c r="M17" s="7">
-        <v>407</v>
+        <v>1364</v>
       </c>
       <c r="N17" s="7">
-        <v>421174</v>
+        <v>1456626</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>899</v>
+        <v>3185</v>
       </c>
       <c r="D18" s="7">
-        <v>935995</v>
+        <v>3401638</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2282,10 +2123,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>989</v>
+        <v>3272</v>
       </c>
       <c r="I18" s="7">
-        <v>1037442</v>
+        <v>3531774</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1888</v>
+        <v>6457</v>
       </c>
       <c r="N18" s="7">
-        <v>1973437</v>
+        <v>6933412</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2313,171 +2154,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2697</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2886901</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2396</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2589885</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5093</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5476786</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>488</v>
-      </c>
-      <c r="D20" s="7">
-        <v>514737</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>876</v>
-      </c>
-      <c r="I20" s="7">
-        <v>941889</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1364</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1456626</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3185</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3401638</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3272</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3531774</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6457</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6933412</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2490,8 +2175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F985912-E73E-443E-8BFD-6754454CCC65}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EC8ED5-B48A-4944-B438-D5594292427B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2507,7 +2192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2608,49 +2293,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>87</v>
+        <v>547</v>
       </c>
       <c r="D4" s="7">
-        <v>90530</v>
+        <v>566236</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="I4" s="7">
-        <v>76249</v>
+        <v>487437</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>165</v>
+        <v>1030</v>
       </c>
       <c r="N4" s="7">
-        <v>166779</v>
+        <v>1053673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,49 +2344,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D5" s="7">
-        <v>25048</v>
+        <v>103728</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="I5" s="7">
-        <v>35060</v>
+        <v>178523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="N5" s="7">
-        <v>60109</v>
+        <v>282251</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,10 +2395,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>647</v>
       </c>
       <c r="D6" s="7">
-        <v>115578</v>
+        <v>669964</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2725,10 +2410,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>113</v>
+        <v>659</v>
       </c>
       <c r="I6" s="7">
-        <v>111309</v>
+        <v>665960</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2740,10 +2425,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>225</v>
+        <v>1306</v>
       </c>
       <c r="N6" s="7">
-        <v>226888</v>
+        <v>1335924</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2763,49 +2448,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>460</v>
+        <v>796</v>
       </c>
       <c r="D7" s="7">
-        <v>475706</v>
+        <v>854025</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>405</v>
+        <v>698</v>
       </c>
       <c r="I7" s="7">
-        <v>411188</v>
+        <v>740993</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>865</v>
+        <v>1494</v>
       </c>
       <c r="N7" s="7">
-        <v>886894</v>
+        <v>1595018</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,49 +2499,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>78679</v>
+        <v>148558</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="I8" s="7">
-        <v>143463</v>
+        <v>283826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>216</v>
+        <v>398</v>
       </c>
       <c r="N8" s="7">
-        <v>222142</v>
+        <v>432384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,10 +2550,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>535</v>
+        <v>932</v>
       </c>
       <c r="D9" s="7">
-        <v>554385</v>
+        <v>1002583</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2880,10 +2565,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>546</v>
+        <v>960</v>
       </c>
       <c r="I9" s="7">
-        <v>554651</v>
+        <v>1024819</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2895,10 +2580,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1081</v>
+        <v>1892</v>
       </c>
       <c r="N9" s="7">
-        <v>1109036</v>
+        <v>2027402</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2918,49 +2603,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>796</v>
+        <v>603</v>
       </c>
       <c r="D10" s="7">
-        <v>854025</v>
+        <v>657574</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>698</v>
+        <v>568</v>
       </c>
       <c r="I10" s="7">
-        <v>740993</v>
+        <v>603804</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>1494</v>
+        <v>1171</v>
       </c>
       <c r="N10" s="7">
-        <v>1595018</v>
+        <v>1261378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +2654,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="D11" s="7">
-        <v>148558</v>
+        <v>101027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="I11" s="7">
-        <v>283826</v>
+        <v>173477</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="N11" s="7">
-        <v>432384</v>
+        <v>274504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,10 +2705,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>932</v>
+        <v>695</v>
       </c>
       <c r="D12" s="7">
-        <v>1002583</v>
+        <v>758601</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3035,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>960</v>
+        <v>730</v>
       </c>
       <c r="I12" s="7">
-        <v>1024819</v>
+        <v>777281</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3050,10 +2735,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1892</v>
+        <v>1425</v>
       </c>
       <c r="N12" s="7">
-        <v>2027402</v>
+        <v>1535882</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3067,55 +2752,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>603</v>
+        <v>752</v>
       </c>
       <c r="D13" s="7">
-        <v>657574</v>
+        <v>748796</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>568</v>
+        <v>684</v>
       </c>
       <c r="I13" s="7">
-        <v>603804</v>
+        <v>744575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>1171</v>
+        <v>1436</v>
       </c>
       <c r="N13" s="7">
-        <v>1261378</v>
+        <v>1493372</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,49 +2809,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="D14" s="7">
-        <v>101027</v>
+        <v>177821</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="I14" s="7">
-        <v>173477</v>
+        <v>285320</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>254</v>
+        <v>434</v>
       </c>
       <c r="N14" s="7">
-        <v>274504</v>
+        <v>463140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,10 +2860,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>923</v>
       </c>
       <c r="D15" s="7">
-        <v>758601</v>
+        <v>926617</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3190,10 +2875,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>730</v>
+        <v>947</v>
       </c>
       <c r="I15" s="7">
-        <v>777281</v>
+        <v>1029895</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3205,10 +2890,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1425</v>
+        <v>1870</v>
       </c>
       <c r="N15" s="7">
-        <v>1535882</v>
+        <v>1956512</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3222,55 +2907,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>752</v>
+        <v>2698</v>
       </c>
       <c r="D16" s="7">
-        <v>748796</v>
+        <v>2826631</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>684</v>
+        <v>2433</v>
       </c>
       <c r="I16" s="7">
-        <v>744575</v>
+        <v>2576809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>1436</v>
+        <v>5131</v>
       </c>
       <c r="N16" s="7">
-        <v>1493372</v>
+        <v>5403440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,49 +2964,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>171</v>
+        <v>499</v>
       </c>
       <c r="D17" s="7">
-        <v>177821</v>
+        <v>531133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>263</v>
+        <v>863</v>
       </c>
       <c r="I17" s="7">
-        <v>285320</v>
+        <v>921146</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>434</v>
+        <v>1362</v>
       </c>
       <c r="N17" s="7">
-        <v>463140</v>
+        <v>1452279</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,10 +3015,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>923</v>
+        <v>3197</v>
       </c>
       <c r="D18" s="7">
-        <v>926617</v>
+        <v>3357764</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3345,10 +3030,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>947</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1029895</v>
+        <v>3497955</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3360,10 +3045,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1870</v>
+        <v>6493</v>
       </c>
       <c r="N18" s="7">
-        <v>1956512</v>
+        <v>6855719</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3376,171 +3061,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2698</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2826631</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2433</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2576809</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5131</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5403441</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>499</v>
-      </c>
-      <c r="D20" s="7">
-        <v>531133</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>863</v>
-      </c>
-      <c r="I20" s="7">
-        <v>921146</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1362</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1452279</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3197</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3357764</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3497955</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6493</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6855720</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3553,8 +3082,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24025CD7-15C9-4A63-9DAF-3EAED317DF76}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0290ECDC-E755-4150-8050-ECF3AB8614E5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3570,7 +3099,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3671,49 +3200,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>101</v>
+        <v>606</v>
       </c>
       <c r="D4" s="7">
-        <v>89035</v>
+        <v>533160</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
-        <v>190</v>
+        <v>913</v>
       </c>
       <c r="I4" s="7">
-        <v>102615</v>
+        <v>506181</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
-        <v>291</v>
+        <v>1519</v>
       </c>
       <c r="N4" s="7">
-        <v>191651</v>
+        <v>1039341</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,49 +3251,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7">
-        <v>12947</v>
+        <v>100259</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>52</v>
+        <v>323</v>
       </c>
       <c r="I5" s="7">
-        <v>26999</v>
+        <v>167581</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>69</v>
+        <v>445</v>
       </c>
       <c r="N5" s="7">
-        <v>39945</v>
+        <v>267840</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,10 +3302,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>728</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>633419</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3788,10 +3317,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1236</v>
       </c>
       <c r="I6" s="7">
-        <v>129614</v>
+        <v>673762</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3803,10 +3332,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1964</v>
       </c>
       <c r="N6" s="7">
-        <v>231596</v>
+        <v>1307181</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3826,49 +3355,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>505</v>
+        <v>791</v>
       </c>
       <c r="D7" s="7">
-        <v>455382</v>
+        <v>1023303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>723</v>
+        <v>1106</v>
       </c>
       <c r="I7" s="7">
-        <v>438123</v>
+        <v>709133</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="M7" s="7">
-        <v>1228</v>
+        <v>1897</v>
       </c>
       <c r="N7" s="7">
-        <v>893505</v>
+        <v>1732436</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,49 +3406,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="D8" s="7">
-        <v>92361</v>
+        <v>165132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>271</v>
+        <v>401</v>
       </c>
       <c r="I8" s="7">
-        <v>153817</v>
+        <v>243550</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
-        <v>376</v>
+        <v>570</v>
       </c>
       <c r="N8" s="7">
-        <v>246178</v>
+        <v>408682</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,10 +3457,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>610</v>
+        <v>960</v>
       </c>
       <c r="D9" s="7">
-        <v>547743</v>
+        <v>1188435</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3943,10 +3472,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1507</v>
       </c>
       <c r="I9" s="7">
-        <v>591940</v>
+        <v>952683</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3958,10 +3487,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>2467</v>
       </c>
       <c r="N9" s="7">
-        <v>1139683</v>
+        <v>2141118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3981,49 +3510,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>791</v>
+        <v>543</v>
       </c>
       <c r="D10" s="7">
-        <v>864232</v>
+        <v>575231</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>1106</v>
+        <v>769</v>
       </c>
       <c r="I10" s="7">
-        <v>783394</v>
+        <v>751230</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>1897</v>
+        <v>1312</v>
       </c>
       <c r="N10" s="7">
-        <v>1647627</v>
+        <v>1326460</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +3561,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7">
-        <v>170416</v>
+        <v>124976</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="7">
         <v>268</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="7">
-        <v>401</v>
-      </c>
       <c r="I11" s="7">
-        <v>270302</v>
+        <v>172767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="M11" s="7">
-        <v>570</v>
+        <v>396</v>
       </c>
       <c r="N11" s="7">
-        <v>440717</v>
+        <v>297743</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +3612,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>960</v>
+        <v>671</v>
       </c>
       <c r="D12" s="7">
-        <v>1034648</v>
+        <v>700207</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4098,10 +3627,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1507</v>
+        <v>1037</v>
       </c>
       <c r="I12" s="7">
-        <v>1053696</v>
+        <v>923997</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4113,10 +3642,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2467</v>
+        <v>1708</v>
       </c>
       <c r="N12" s="7">
-        <v>2088344</v>
+        <v>1624203</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4130,55 +3659,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>543</v>
+        <v>797</v>
       </c>
       <c r="D13" s="7">
-        <v>591975</v>
+        <v>747487</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
-        <v>769</v>
+        <v>1107</v>
       </c>
       <c r="I13" s="7">
-        <v>673725</v>
+        <v>809159</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
-        <v>1312</v>
+        <v>1904</v>
       </c>
       <c r="N13" s="7">
-        <v>1265701</v>
+        <v>1556647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +3716,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>131999</v>
+        <v>173891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="H14" s="7">
-        <v>268</v>
+        <v>445</v>
       </c>
       <c r="I14" s="7">
-        <v>190103</v>
+        <v>274425</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>396</v>
+        <v>651</v>
       </c>
       <c r="N14" s="7">
-        <v>322102</v>
+        <v>448316</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>671</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="7">
-        <v>723974</v>
+        <v>921378</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4253,10 +3782,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1037</v>
+        <v>1552</v>
       </c>
       <c r="I15" s="7">
-        <v>863828</v>
+        <v>1083584</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4268,10 +3797,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1708</v>
+        <v>2555</v>
       </c>
       <c r="N15" s="7">
-        <v>1587803</v>
+        <v>2004963</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4285,55 +3814,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>797</v>
+        <v>2737</v>
       </c>
       <c r="D16" s="7">
-        <v>775322</v>
+        <v>2879182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
-        <v>1107</v>
+        <v>3895</v>
       </c>
       <c r="I16" s="7">
-        <v>832588</v>
+        <v>2775703</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
-        <v>1904</v>
+        <v>6632</v>
       </c>
       <c r="N16" s="7">
-        <v>1607911</v>
+        <v>5654885</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +3871,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>206</v>
+        <v>625</v>
       </c>
       <c r="D17" s="7">
-        <v>184936</v>
+        <v>564257</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
-        <v>445</v>
+        <v>1437</v>
       </c>
       <c r="I17" s="7">
-        <v>305029</v>
+        <v>858323</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>651</v>
+        <v>2062</v>
       </c>
       <c r="N17" s="7">
-        <v>489965</v>
+        <v>1422580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1003</v>
+        <v>3362</v>
       </c>
       <c r="D18" s="7">
-        <v>960258</v>
+        <v>3443439</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4408,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1552</v>
+        <v>5332</v>
       </c>
       <c r="I18" s="7">
-        <v>1137617</v>
+        <v>3634026</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4423,10 +3952,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2555</v>
+        <v>8694</v>
       </c>
       <c r="N18" s="7">
-        <v>2097876</v>
+        <v>7077465</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4439,171 +3968,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2737</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2775948</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3895</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2830446</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6632</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5606394</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>625</v>
-      </c>
-      <c r="D20" s="7">
-        <v>592658</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1437</v>
-      </c>
-      <c r="I20" s="7">
-        <v>946250</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2062</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1538908</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3362</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3368606</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5332</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3776696</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8694</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7145302</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
